--- a/data/pca/factorExposure/factorExposure_2017-10-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-10-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02396483901609086</v>
+        <v>0.01428881273794173</v>
       </c>
       <c r="C2">
-        <v>-0.004124194796572985</v>
+        <v>0.03711410948045601</v>
       </c>
       <c r="D2">
-        <v>-0.01488336215100763</v>
+        <v>0.02856387507312033</v>
       </c>
       <c r="E2">
-        <v>-0.01313288444168496</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03238566360019822</v>
+      </c>
+      <c r="F2">
+        <v>0.02611238558769941</v>
+      </c>
+      <c r="G2">
+        <v>0.01812321928492249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01225067835166964</v>
+        <v>0.05410758200174918</v>
       </c>
       <c r="C3">
-        <v>-0.04720026891401755</v>
+        <v>0.07635571773534637</v>
       </c>
       <c r="D3">
-        <v>-0.01607025203383874</v>
+        <v>0.01501913581261691</v>
       </c>
       <c r="E3">
-        <v>-0.01129894624217223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.09601276038956111</v>
+      </c>
+      <c r="F3">
+        <v>0.05336018333759322</v>
+      </c>
+      <c r="G3">
+        <v>0.07183344582212084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02213393338049726</v>
+        <v>0.05600336165706823</v>
       </c>
       <c r="C4">
-        <v>-0.01664315944807815</v>
+        <v>0.06246645187067321</v>
       </c>
       <c r="D4">
-        <v>-0.06439114858292773</v>
+        <v>0.02282631578070748</v>
       </c>
       <c r="E4">
-        <v>0.01015488922715163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01165005055768956</v>
+      </c>
+      <c r="F4">
+        <v>0.009383788021811924</v>
+      </c>
+      <c r="G4">
+        <v>0.04490110060833786</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01486948403993737</v>
+        <v>0.03232273012092871</v>
       </c>
       <c r="C6">
-        <v>-0.02692038725885203</v>
+        <v>0.05309281972972901</v>
       </c>
       <c r="D6">
-        <v>-0.08223190671964474</v>
+        <v>0.01611038228170909</v>
       </c>
       <c r="E6">
-        <v>-0.003186675949330566</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.007259514913636277</v>
+      </c>
+      <c r="F6">
+        <v>0.01270853298549623</v>
+      </c>
+      <c r="G6">
+        <v>0.02499178273409819</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01036557055538065</v>
+        <v>0.01991287270986792</v>
       </c>
       <c r="C7">
-        <v>-0.007623672690660354</v>
+        <v>0.03596938363320073</v>
       </c>
       <c r="D7">
-        <v>-0.03996386765230403</v>
+        <v>0.01261993210800872</v>
       </c>
       <c r="E7">
-        <v>0.06756756004280499</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01328366510094221</v>
+      </c>
+      <c r="F7">
+        <v>0.008783728331533409</v>
+      </c>
+      <c r="G7">
+        <v>0.07723805830627792</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>7.958453780840513e-05</v>
+        <v>-0.0008367521352908106</v>
       </c>
       <c r="C8">
-        <v>0.006321568644795539</v>
+        <v>0.01461363721948595</v>
       </c>
       <c r="D8">
-        <v>-0.01812939413844233</v>
+        <v>0.003729988963759464</v>
       </c>
       <c r="E8">
-        <v>0.004066345916698169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01737527239829888</v>
+      </c>
+      <c r="F8">
+        <v>0.01312047635399942</v>
+      </c>
+      <c r="G8">
+        <v>0.02516041347729232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01452029947295276</v>
+        <v>0.02866208536926799</v>
       </c>
       <c r="C9">
-        <v>-0.01684690309175478</v>
+        <v>0.04176464094974351</v>
       </c>
       <c r="D9">
-        <v>-0.04574905770721106</v>
+        <v>0.01580962945987189</v>
       </c>
       <c r="E9">
-        <v>0.0003772856276399213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01350760638259604</v>
+      </c>
+      <c r="F9">
+        <v>0.01757841525005144</v>
+      </c>
+      <c r="G9">
+        <v>0.03638707627475676</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.008623732650416788</v>
+        <v>0.09003021615426979</v>
       </c>
       <c r="C10">
-        <v>-0.1411691170057197</v>
+        <v>-0.1853341569852415</v>
       </c>
       <c r="D10">
-        <v>0.138235849454902</v>
+        <v>-0.01914441255346061</v>
       </c>
       <c r="E10">
-        <v>0.023118576589521</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01492701261084873</v>
+      </c>
+      <c r="F10">
+        <v>-0.01383579456421053</v>
+      </c>
+      <c r="G10">
+        <v>0.04041551418287199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0001299997307841374</v>
+        <v>0.03521811723913847</v>
       </c>
       <c r="C11">
-        <v>-0.007558737057608138</v>
+        <v>0.05404534744164172</v>
       </c>
       <c r="D11">
-        <v>-0.04457701531947107</v>
+        <v>0.001871658394332101</v>
       </c>
       <c r="E11">
-        <v>-0.01363049781084358</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.002155614844058974</v>
+      </c>
+      <c r="F11">
+        <v>0.02277847022347886</v>
+      </c>
+      <c r="G11">
+        <v>0.01832942788990017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005354340574188641</v>
+        <v>0.03222137639548314</v>
       </c>
       <c r="C12">
-        <v>-0.01675301086003134</v>
+        <v>0.04512478932780008</v>
       </c>
       <c r="D12">
-        <v>-0.04671152382412698</v>
+        <v>0.005797230482789488</v>
       </c>
       <c r="E12">
-        <v>-0.005251855581546641</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.005795102306465336</v>
+      </c>
+      <c r="F12">
+        <v>0.00702912711928893</v>
+      </c>
+      <c r="G12">
+        <v>0.02318553463366985</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02128432454925651</v>
+        <v>0.01309002924544182</v>
       </c>
       <c r="C13">
-        <v>-0.01663367887044898</v>
+        <v>0.03221579252639947</v>
       </c>
       <c r="D13">
-        <v>-0.009710553693919802</v>
+        <v>0.02488859834409422</v>
       </c>
       <c r="E13">
-        <v>-0.008793469616361746</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02456663178588574</v>
+      </c>
+      <c r="F13">
+        <v>0.01438818158436135</v>
+      </c>
+      <c r="G13">
+        <v>0.03119258108020128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006935444514305078</v>
+        <v>0.008963138038248331</v>
       </c>
       <c r="C14">
-        <v>-0.01623825882630132</v>
+        <v>0.02689822203996353</v>
       </c>
       <c r="D14">
-        <v>-0.01533774702895015</v>
+        <v>0.008486870058538831</v>
       </c>
       <c r="E14">
-        <v>0.01011407964092256</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.006676528831335649</v>
+      </c>
+      <c r="F14">
+        <v>-0.0003904534233217798</v>
+      </c>
+      <c r="G14">
+        <v>0.03818270174974863</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0005754442604738825</v>
+        <v>0.03157824739288066</v>
       </c>
       <c r="C16">
-        <v>-0.01473934339389581</v>
+        <v>0.04405204812096306</v>
       </c>
       <c r="D16">
-        <v>-0.0509859000248862</v>
+        <v>0.001424805690381521</v>
       </c>
       <c r="E16">
-        <v>-0.008337179865359461</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.003866671971525828</v>
+      </c>
+      <c r="F16">
+        <v>0.008443310976110832</v>
+      </c>
+      <c r="G16">
+        <v>0.02274403717944256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01250570660967505</v>
+        <v>0.0305914575285644</v>
       </c>
       <c r="C19">
-        <v>-0.01960198541842992</v>
+        <v>0.05171559849197122</v>
       </c>
       <c r="D19">
-        <v>-0.02846275674218754</v>
+        <v>0.0157701583304101</v>
       </c>
       <c r="E19">
-        <v>0.001702622622492833</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.05058489369788929</v>
+      </c>
+      <c r="F19">
+        <v>0.02865708830199031</v>
+      </c>
+      <c r="G19">
+        <v>0.04318918381035277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01041338941103911</v>
+        <v>0.01249959716316246</v>
       </c>
       <c r="C20">
-        <v>-0.007600153881329597</v>
+        <v>0.03458877579414158</v>
       </c>
       <c r="D20">
-        <v>-0.01384529857313816</v>
+        <v>0.01318895356427794</v>
       </c>
       <c r="E20">
-        <v>-0.002329309251598515</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02336623795502309</v>
+      </c>
+      <c r="F20">
+        <v>0.001122074186407074</v>
+      </c>
+      <c r="G20">
+        <v>0.03645183315278133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01345210424174887</v>
+        <v>0.0156032113027721</v>
       </c>
       <c r="C21">
-        <v>-0.03669080097637366</v>
+        <v>0.03492888469541763</v>
       </c>
       <c r="D21">
-        <v>-0.01384173746307803</v>
+        <v>0.01617702387999232</v>
       </c>
       <c r="E21">
-        <v>0.01797235856680679</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03102420794840212</v>
+      </c>
+      <c r="F21">
+        <v>0.009502963237397966</v>
+      </c>
+      <c r="G21">
+        <v>0.0575431152293862</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004627382154697695</v>
+        <v>0.02617367363242754</v>
       </c>
       <c r="C24">
-        <v>-0.008846095142629231</v>
+        <v>0.04670921260779563</v>
       </c>
       <c r="D24">
-        <v>-0.04512720331424789</v>
+        <v>0.006640075886438251</v>
       </c>
       <c r="E24">
-        <v>-0.008574701177983117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.001021072585689545</v>
+      </c>
+      <c r="F24">
+        <v>0.02001486875267834</v>
+      </c>
+      <c r="G24">
+        <v>0.02186958621489305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01086661221891559</v>
+        <v>0.043534429736741</v>
       </c>
       <c r="C25">
-        <v>-0.02624357295603102</v>
+        <v>0.0535692301516564</v>
       </c>
       <c r="D25">
-        <v>-0.04335366556746105</v>
+        <v>0.01048146684198766</v>
       </c>
       <c r="E25">
-        <v>-0.007867671846896435</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.008483490669868204</v>
+      </c>
+      <c r="F25">
+        <v>0.01499709719700667</v>
+      </c>
+      <c r="G25">
+        <v>0.02762380316634813</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02281034232623705</v>
+        <v>0.009402845378972648</v>
       </c>
       <c r="C26">
-        <v>-0.008842880053196077</v>
+        <v>0.009926762825387266</v>
       </c>
       <c r="D26">
-        <v>0.003990691143921478</v>
+        <v>0.02368595134240683</v>
       </c>
       <c r="E26">
-        <v>0.007409770708181114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.007075838650939747</v>
+      </c>
+      <c r="F26">
+        <v>0.001997206343394282</v>
+      </c>
+      <c r="G26">
+        <v>0.02778688978645338</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.0255474726836903</v>
+        <v>0.1163810074495406</v>
       </c>
       <c r="C28">
-        <v>-0.209943760722304</v>
+        <v>-0.2290823581042245</v>
       </c>
       <c r="D28">
-        <v>0.1968024068506812</v>
+        <v>-0.01043528698147445</v>
       </c>
       <c r="E28">
-        <v>0.03606193046404241</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.006797599471051476</v>
+      </c>
+      <c r="F28">
+        <v>-0.007136417517196568</v>
+      </c>
+      <c r="G28">
+        <v>0.0578685535086512</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.00710714524250493</v>
+        <v>0.01379554447588675</v>
       </c>
       <c r="C29">
-        <v>-0.02024250222800445</v>
+        <v>0.02054448515654168</v>
       </c>
       <c r="D29">
-        <v>-0.01285425159650265</v>
+        <v>0.007101631285298884</v>
       </c>
       <c r="E29">
-        <v>0.005470970747219726</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.007923215165281458</v>
+      </c>
+      <c r="F29">
+        <v>-0.01089506919222921</v>
+      </c>
+      <c r="G29">
+        <v>0.02845158003820459</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02387641142537805</v>
+        <v>0.0450375060999986</v>
       </c>
       <c r="C30">
-        <v>-0.013282225740953</v>
+        <v>0.06914350781805731</v>
       </c>
       <c r="D30">
-        <v>-0.06259767706427163</v>
+        <v>0.02734748899875687</v>
       </c>
       <c r="E30">
-        <v>-0.06380901453270717</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.03951464750082764</v>
+      </c>
+      <c r="F30">
+        <v>0.042064901745827</v>
+      </c>
+      <c r="G30">
+        <v>0.005066571957972449</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.006537954913192066</v>
+        <v>0.04533094814969598</v>
       </c>
       <c r="C31">
-        <v>-0.04851480029240491</v>
+        <v>0.03101864272996578</v>
       </c>
       <c r="D31">
-        <v>-0.0376022116448369</v>
+        <v>0.003180679765806371</v>
       </c>
       <c r="E31">
-        <v>0.001457421432252851</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.01092945438605689</v>
+      </c>
+      <c r="F31">
+        <v>-0.03520330355124896</v>
+      </c>
+      <c r="G31">
+        <v>0.02680418616743387</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007169877786213851</v>
+        <v>0.003197271404264874</v>
       </c>
       <c r="C32">
-        <v>-0.01280284587518305</v>
+        <v>0.03539329099364268</v>
       </c>
       <c r="D32">
-        <v>-0.008963075119719201</v>
+        <v>-0.004137327790098489</v>
       </c>
       <c r="E32">
-        <v>0.02375958955435609</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01336781594005997</v>
+      </c>
+      <c r="F32">
+        <v>0.06828384739284063</v>
+      </c>
+      <c r="G32">
+        <v>0.04837278991479829</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01202120325138108</v>
+        <v>0.02795220177909788</v>
       </c>
       <c r="C33">
-        <v>-0.0249019449958673</v>
+        <v>0.05083522912296356</v>
       </c>
       <c r="D33">
-        <v>-0.02171705894900766</v>
+        <v>0.01445628291597155</v>
       </c>
       <c r="E33">
-        <v>-0.02631478047885228</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02371572886483575</v>
+      </c>
+      <c r="F33">
+        <v>0.02648582447149324</v>
+      </c>
+      <c r="G33">
+        <v>0.02915899987895026</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.005167484772422285</v>
+        <v>0.0446106187374669</v>
       </c>
       <c r="C34">
-        <v>-0.02187633750572485</v>
+        <v>0.05478985705437657</v>
       </c>
       <c r="D34">
-        <v>-0.0486888427152961</v>
+        <v>-0.005443053478818138</v>
       </c>
       <c r="E34">
-        <v>0.0002320211093759962</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.009153580328953451</v>
+      </c>
+      <c r="F34">
+        <v>0.02463809270615318</v>
+      </c>
+      <c r="G34">
+        <v>0.03339641126369052</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01153507426965303</v>
+        <v>0.01106423152800047</v>
       </c>
       <c r="C36">
-        <v>-0.01815908324793666</v>
+        <v>0.006994837112292644</v>
       </c>
       <c r="D36">
-        <v>-0.0004056891943699434</v>
+        <v>0.01132419300450897</v>
       </c>
       <c r="E36">
-        <v>0.002496663215149418</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.002498770012773425</v>
+      </c>
+      <c r="F36">
+        <v>-0.001355706424938588</v>
+      </c>
+      <c r="G36">
+        <v>0.0228749073283408</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.006496119331464052</v>
+        <v>0.03317825699551642</v>
       </c>
       <c r="C38">
-        <v>-0.02740743283212414</v>
+        <v>0.02571876917297811</v>
       </c>
       <c r="D38">
-        <v>-0.02467523774428555</v>
+        <v>-0.007836328601431936</v>
       </c>
       <c r="E38">
-        <v>-0.0004409835825153027</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.003798527218903845</v>
+      </c>
+      <c r="F38">
+        <v>0.0005232864861797834</v>
+      </c>
+      <c r="G38">
+        <v>0.0299530157630553</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005903513547146465</v>
+        <v>0.0329035210991548</v>
       </c>
       <c r="C39">
-        <v>0.01116606410722294</v>
+        <v>0.08160520191657405</v>
       </c>
       <c r="D39">
-        <v>-0.09644201244185828</v>
+        <v>0.01213976496461068</v>
       </c>
       <c r="E39">
-        <v>-0.01742555404048011</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.0236162675604325</v>
+      </c>
+      <c r="F39">
+        <v>0.03769525008350552</v>
+      </c>
+      <c r="G39">
+        <v>0.02449183332664906</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01062482538783594</v>
+        <v>0.02153137829735784</v>
       </c>
       <c r="C40">
-        <v>-0.01882605576908623</v>
+        <v>0.03043017520473328</v>
       </c>
       <c r="D40">
-        <v>-0.03851972739820878</v>
+        <v>0.0129858229389983</v>
       </c>
       <c r="E40">
-        <v>-0.01243315644701518</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.0210687583609808</v>
+      </c>
+      <c r="F40">
+        <v>0.01761942704591066</v>
+      </c>
+      <c r="G40">
+        <v>0.023790104695907</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.004862023609942352</v>
+        <v>0.01216542714949487</v>
       </c>
       <c r="C41">
-        <v>-0.01964013691168584</v>
+        <v>-0.0009913073010811688</v>
       </c>
       <c r="D41">
-        <v>0.008682412523624448</v>
+        <v>0.003480919390676839</v>
       </c>
       <c r="E41">
-        <v>0.003336900513144812</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.003578732163793154</v>
+      </c>
+      <c r="F41">
+        <v>0.000884271451406921</v>
+      </c>
+      <c r="G41">
+        <v>0.01401780287139187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09192388414266302</v>
+        <v>0.02180965576670118</v>
       </c>
       <c r="C42">
-        <v>-0.02779672701209247</v>
+        <v>0.04835805948724763</v>
       </c>
       <c r="D42">
-        <v>-0.2120740403907578</v>
+        <v>0.09794066141170925</v>
       </c>
       <c r="E42">
-        <v>-0.2819540298843954</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.04371792287131095</v>
+      </c>
+      <c r="F42">
+        <v>-0.06556939029411613</v>
+      </c>
+      <c r="G42">
+        <v>-0.1780754038914342</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.005741426263441263</v>
+        <v>0.02816185477367026</v>
       </c>
       <c r="C43">
-        <v>-0.02196347180702551</v>
+        <v>0.00780932418195245</v>
       </c>
       <c r="D43">
-        <v>0.01448158420146596</v>
+        <v>0.003726752665580701</v>
       </c>
       <c r="E43">
-        <v>0.0007224104020701903</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.003908685207121148</v>
+      </c>
+      <c r="F43">
+        <v>-0.0001753386418562777</v>
+      </c>
+      <c r="G43">
+        <v>0.02018809869780583</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.00313509403570777</v>
+        <v>0.01689929637321552</v>
       </c>
       <c r="C44">
-        <v>0.0004958434226794086</v>
+        <v>0.04779233528145168</v>
       </c>
       <c r="D44">
-        <v>-0.02782598450037798</v>
+        <v>0.006653222224171333</v>
       </c>
       <c r="E44">
-        <v>0.00239827065358897</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01665728696008049</v>
+      </c>
+      <c r="F44">
+        <v>0.0198607816238399</v>
+      </c>
+      <c r="G44">
+        <v>0.03585624655792289</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01042480484140858</v>
+        <v>0.005485312909344427</v>
       </c>
       <c r="C46">
-        <v>-0.02006626752977212</v>
+        <v>0.01638724609328971</v>
       </c>
       <c r="D46">
-        <v>-0.01550251801716307</v>
+        <v>0.01161034033777075</v>
       </c>
       <c r="E46">
-        <v>-0.004096527923211536</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.0005748914623170001</v>
+      </c>
+      <c r="F46">
+        <v>-0.01409886516104152</v>
+      </c>
+      <c r="G46">
+        <v>0.02626364359126045</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.0001575787837896716</v>
+        <v>0.07428638691424798</v>
       </c>
       <c r="C47">
-        <v>-0.0634131535998932</v>
+        <v>0.06345696691319154</v>
       </c>
       <c r="D47">
-        <v>-0.04511095360035609</v>
+        <v>-0.005180437890208275</v>
       </c>
       <c r="E47">
-        <v>-0.008552411673569654</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01599544868870046</v>
+      </c>
+      <c r="F47">
+        <v>-0.05882166779734233</v>
+      </c>
+      <c r="G47">
+        <v>0.0263924547566224</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002315191627063742</v>
+        <v>0.02192060971361322</v>
       </c>
       <c r="C48">
-        <v>-0.02852499802749738</v>
+        <v>0.009183807753884964</v>
       </c>
       <c r="D48">
-        <v>-0.00920333549416967</v>
+        <v>0.0005282565921927017</v>
       </c>
       <c r="E48">
-        <v>-0.0005962857959833899</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.0002631955782226237</v>
+      </c>
+      <c r="F48">
+        <v>-0.01487454340392777</v>
+      </c>
+      <c r="G48">
+        <v>0.02841311482096502</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.001587823898458641</v>
+        <v>0.08091848606851383</v>
       </c>
       <c r="C50">
-        <v>-0.05369435650693384</v>
+        <v>0.06416939575697192</v>
       </c>
       <c r="D50">
-        <v>-0.059856284589038</v>
+        <v>-0.004140380791165095</v>
       </c>
       <c r="E50">
-        <v>0.01578310797766978</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01515746244984389</v>
+      </c>
+      <c r="F50">
+        <v>-0.0543715649852982</v>
+      </c>
+      <c r="G50">
+        <v>0.04687727128144582</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.006929034896423444</v>
+        <v>0.01197451666275124</v>
       </c>
       <c r="C51">
-        <v>-0.01899145324953492</v>
+        <v>0.0286035301205859</v>
       </c>
       <c r="D51">
-        <v>0.01453794262130278</v>
+        <v>0.009002869671671517</v>
       </c>
       <c r="E51">
-        <v>0.01022758943292818</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.009890865305330756</v>
+      </c>
+      <c r="F51">
+        <v>0.03082602455463324</v>
+      </c>
+      <c r="G51">
+        <v>0.0479051578373163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.002960702342415681</v>
+        <v>0.09540396248396925</v>
       </c>
       <c r="C53">
-        <v>-0.08837614641488126</v>
+        <v>0.07868225372273038</v>
       </c>
       <c r="D53">
-        <v>-0.099720692123121</v>
+        <v>-0.005724897743556991</v>
       </c>
       <c r="E53">
-        <v>-0.006977738934772199</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.04050412231096361</v>
+      </c>
+      <c r="F53">
+        <v>-0.06218742909291084</v>
+      </c>
+      <c r="G53">
+        <v>0.02615456321101924</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001543088406960128</v>
+        <v>0.02967517382650842</v>
       </c>
       <c r="C54">
-        <v>-0.03599047718380001</v>
+        <v>0.007174525327537012</v>
       </c>
       <c r="D54">
-        <v>0.01328252966596348</v>
+        <v>-0.003447401856563743</v>
       </c>
       <c r="E54">
-        <v>0.01299695636264725</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.003069829746227536</v>
+      </c>
+      <c r="F54">
+        <v>-0.001227989445655667</v>
+      </c>
+      <c r="G54">
+        <v>0.03270299629291035</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.0007941597332534361</v>
+        <v>0.07374228626653616</v>
       </c>
       <c r="C55">
-        <v>-0.06340682756785861</v>
+        <v>0.07302119472513539</v>
       </c>
       <c r="D55">
-        <v>-0.08623309018446841</v>
+        <v>-0.004781970210788452</v>
       </c>
       <c r="E55">
-        <v>-0.01798503047381709</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.03241772495576634</v>
+      </c>
+      <c r="F55">
+        <v>-0.05769708847280313</v>
+      </c>
+      <c r="G55">
+        <v>0.01177119378131529</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.0003408566095663638</v>
+        <v>0.1432009069983219</v>
       </c>
       <c r="C56">
-        <v>-0.1103640931785091</v>
+        <v>0.1025348695310945</v>
       </c>
       <c r="D56">
-        <v>-0.1276771233373282</v>
+        <v>-0.01382394455743574</v>
       </c>
       <c r="E56">
-        <v>-0.02015398890355929</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.0466687725331458</v>
+      </c>
+      <c r="F56">
+        <v>-0.0955319988122447</v>
+      </c>
+      <c r="G56">
+        <v>0.003240451851278034</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02284287657709962</v>
+        <v>0.01189749118445884</v>
       </c>
       <c r="C57">
-        <v>-0.01836939639854809</v>
+        <v>0.01106016564197099</v>
       </c>
       <c r="D57">
-        <v>-0.03999564812058833</v>
+        <v>0.02370658308712242</v>
       </c>
       <c r="E57">
-        <v>-0.01473191601900255</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02958802514203693</v>
+      </c>
+      <c r="F57">
+        <v>0.01447897839560129</v>
+      </c>
+      <c r="G57">
+        <v>0.02017200478726796</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.008286261793459286</v>
+        <v>0.07454123559124055</v>
       </c>
       <c r="C58">
-        <v>-0.0928627573339829</v>
+        <v>0.05218713281651782</v>
       </c>
       <c r="D58">
-        <v>-0.09276706209252948</v>
+        <v>0.01904009848766306</v>
       </c>
       <c r="E58">
-        <v>-0.2228298758275479</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9333317589955613</v>
+      </c>
+      <c r="F58">
+        <v>-0.2730409297390559</v>
+      </c>
+      <c r="G58">
+        <v>0.02700989767714119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02216252314172431</v>
+        <v>0.1516385992836567</v>
       </c>
       <c r="C59">
-        <v>-0.2220193413244198</v>
+        <v>-0.2121622414015068</v>
       </c>
       <c r="D59">
-        <v>0.1996644582749192</v>
+        <v>-0.01675824076831889</v>
       </c>
       <c r="E59">
-        <v>0.0135386648094838</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01313119527379168</v>
+      </c>
+      <c r="F59">
+        <v>0.0102233538828101</v>
+      </c>
+      <c r="G59">
+        <v>0.02181067884135152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.02843848278781792</v>
+        <v>0.2932001280333652</v>
       </c>
       <c r="C60">
-        <v>-0.1692647527910613</v>
+        <v>0.08962695228619832</v>
       </c>
       <c r="D60">
-        <v>-0.07404367973589143</v>
+        <v>0.008281061202813588</v>
       </c>
       <c r="E60">
-        <v>-0.05319942450743775</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.02415670045088489</v>
+      </c>
+      <c r="F60">
+        <v>0.3680611912842923</v>
+      </c>
+      <c r="G60">
+        <v>-0.09858265808985522</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002843720815523689</v>
+        <v>0.03348596099692155</v>
       </c>
       <c r="C61">
-        <v>-0.01286334076672218</v>
+        <v>0.06392401866189883</v>
       </c>
       <c r="D61">
-        <v>-0.06687859788295217</v>
+        <v>0.005310968626425209</v>
       </c>
       <c r="E61">
-        <v>-0.01158068852310393</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01123196171957617</v>
+      </c>
+      <c r="F61">
+        <v>0.02064045643382955</v>
+      </c>
+      <c r="G61">
+        <v>0.02334358752095582</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007072943661281798</v>
+        <v>0.01440989343800195</v>
       </c>
       <c r="C63">
-        <v>-0.008554118314874437</v>
+        <v>0.02710065458914466</v>
       </c>
       <c r="D63">
-        <v>-0.01107572380333003</v>
+        <v>0.00795024547546443</v>
       </c>
       <c r="E63">
-        <v>0.005641615149206902</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.006908372316907832</v>
+      </c>
+      <c r="F63">
+        <v>-0.007994857627697699</v>
+      </c>
+      <c r="G63">
+        <v>0.03275864595316388</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.006454085742358832</v>
+        <v>0.04953762079344604</v>
       </c>
       <c r="C64">
-        <v>-0.03748962074497026</v>
+        <v>0.03679375573865455</v>
       </c>
       <c r="D64">
-        <v>-0.06363575188274416</v>
+        <v>0.004799205955081308</v>
       </c>
       <c r="E64">
-        <v>-0.01439439424592125</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.00546335471907048</v>
+      </c>
+      <c r="F64">
+        <v>0.007784158759346944</v>
+      </c>
+      <c r="G64">
+        <v>0.02093750996861526</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.0172277359161033</v>
+        <v>0.08331722042028995</v>
       </c>
       <c r="C65">
-        <v>-0.0337922523632846</v>
+        <v>0.06416364557976836</v>
       </c>
       <c r="D65">
-        <v>-0.09194430197552055</v>
+        <v>0.01487864049602123</v>
       </c>
       <c r="E65">
-        <v>-0.006176589303214494</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.006629629814431165</v>
+      </c>
+      <c r="F65">
+        <v>0.03331638933954185</v>
+      </c>
+      <c r="G65">
+        <v>0.009023068567630781</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005400883249613976</v>
+        <v>0.05351265568772078</v>
       </c>
       <c r="C66">
-        <v>0.000493440566917659</v>
+        <v>0.1147721843347255</v>
       </c>
       <c r="D66">
-        <v>-0.1177586409937604</v>
+        <v>0.01167066320510217</v>
       </c>
       <c r="E66">
-        <v>-0.03576160642213329</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02496811559860415</v>
+      </c>
+      <c r="F66">
+        <v>0.04622627679184949</v>
+      </c>
+      <c r="G66">
+        <v>0.014569607887407</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.001699735203285513</v>
+        <v>0.05647759714829972</v>
       </c>
       <c r="C67">
-        <v>-0.04550120713807584</v>
+        <v>0.0297997894654113</v>
       </c>
       <c r="D67">
-        <v>-0.02598311124500857</v>
+        <v>-0.006309578284230941</v>
       </c>
       <c r="E67">
-        <v>-0.00301445725107295</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003644330479975002</v>
+      </c>
+      <c r="F67">
+        <v>-0.001754976853460259</v>
+      </c>
+      <c r="G67">
+        <v>0.02807418697779212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.039236470216761</v>
+        <v>0.1354402094524627</v>
       </c>
       <c r="C68">
-        <v>-0.1865199144870312</v>
+        <v>-0.2724806262974707</v>
       </c>
       <c r="D68">
-        <v>0.1894011497967959</v>
+        <v>0.0007735764574278742</v>
       </c>
       <c r="E68">
-        <v>0.008692986824671029</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01048520144049485</v>
+      </c>
+      <c r="F68">
+        <v>-0.02542240179568401</v>
+      </c>
+      <c r="G68">
+        <v>0.02017947975125134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.00357371499893097</v>
+        <v>0.07821682056215176</v>
       </c>
       <c r="C69">
-        <v>-0.04998207651222734</v>
+        <v>0.06453507518627484</v>
       </c>
       <c r="D69">
-        <v>-0.05164610761199896</v>
+        <v>-0.009104207368009798</v>
       </c>
       <c r="E69">
-        <v>-0.003798417947459788</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.03373549031256099</v>
+      </c>
+      <c r="F69">
+        <v>-0.03950343855845439</v>
+      </c>
+      <c r="G69">
+        <v>0.02627548946182834</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.02718268371442948</v>
+        <v>0.1303746616688023</v>
       </c>
       <c r="C71">
-        <v>-0.1673052351274785</v>
+        <v>-0.2293202446141041</v>
       </c>
       <c r="D71">
-        <v>0.1675186520789865</v>
+        <v>-0.007857653709014761</v>
       </c>
       <c r="E71">
-        <v>0.01994695940107551</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.0216106366372827</v>
+      </c>
+      <c r="F71">
+        <v>-0.01884833024019291</v>
+      </c>
+      <c r="G71">
+        <v>0.03365707190434492</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.00309547827457745</v>
+        <v>0.08441376994743267</v>
       </c>
       <c r="C72">
-        <v>-0.05777188677079258</v>
+        <v>0.07360561623748872</v>
       </c>
       <c r="D72">
-        <v>-0.1365422113547492</v>
+        <v>-0.00887180452143793</v>
       </c>
       <c r="E72">
-        <v>-0.03855357185888857</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.01118534473135766</v>
+      </c>
+      <c r="F72">
+        <v>0.03834926968727737</v>
+      </c>
+      <c r="G72">
+        <v>0.004981517054566191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.04170314264376845</v>
+        <v>0.4017346110920331</v>
       </c>
       <c r="C73">
-        <v>-0.2026435272288953</v>
+        <v>0.1022958238217691</v>
       </c>
       <c r="D73">
-        <v>-0.135006067248276</v>
+        <v>0.01340178945148941</v>
       </c>
       <c r="E73">
-        <v>-0.1207718556574728</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.08988388929925541</v>
+      </c>
+      <c r="F73">
+        <v>0.5402164429193859</v>
+      </c>
+      <c r="G73">
+        <v>-0.155782317210008</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.00152662280441882</v>
+        <v>0.1161794824925032</v>
       </c>
       <c r="C74">
-        <v>-0.104213647192703</v>
+        <v>0.1168223416730408</v>
       </c>
       <c r="D74">
-        <v>-0.1231530328849863</v>
+        <v>-0.01038062805474384</v>
       </c>
       <c r="E74">
-        <v>-0.027030006582638</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.04122511924018864</v>
+      </c>
+      <c r="F74">
+        <v>-0.06702994242108973</v>
+      </c>
+      <c r="G74">
+        <v>0.0252704849652805</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.0008142344679350855</v>
+        <v>0.2605433394816066</v>
       </c>
       <c r="C75">
-        <v>-0.2364470582047637</v>
+        <v>0.1498117187766533</v>
       </c>
       <c r="D75">
-        <v>-0.20954217453532</v>
+        <v>-0.03161315714846709</v>
       </c>
       <c r="E75">
-        <v>-0.05675240396560313</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.07735246001033044</v>
+      </c>
+      <c r="F75">
+        <v>-0.2172267958145327</v>
+      </c>
+      <c r="G75">
+        <v>-0.03007961983837811</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.006025810426376949</v>
+        <v>0.1371477440908691</v>
       </c>
       <c r="C76">
-        <v>-0.1784590904352064</v>
+        <v>0.1233111352125939</v>
       </c>
       <c r="D76">
-        <v>-0.2022372571591213</v>
+        <v>-0.02161032876283637</v>
       </c>
       <c r="E76">
-        <v>-0.02110562604022141</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.07289114293122571</v>
+      </c>
+      <c r="F76">
+        <v>-0.1290173174789183</v>
+      </c>
+      <c r="G76">
+        <v>0.01641885450026083</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01196901246696428</v>
+        <v>0.06287433924845236</v>
       </c>
       <c r="C77">
-        <v>-0.01785613522558729</v>
+        <v>0.06289114352538545</v>
       </c>
       <c r="D77">
-        <v>-0.06169782234392881</v>
+        <v>0.01266362228210864</v>
       </c>
       <c r="E77">
-        <v>-0.01266113417522013</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04991172600571644</v>
+      </c>
+      <c r="F77">
+        <v>0.01283051518274102</v>
+      </c>
+      <c r="G77">
+        <v>0.05137528094203352</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004200328917437146</v>
+        <v>0.03975018829033465</v>
       </c>
       <c r="C78">
-        <v>-0.0186343584779499</v>
+        <v>0.04979016826497749</v>
       </c>
       <c r="D78">
-        <v>-0.06267635820896762</v>
+        <v>0.005623532140046959</v>
       </c>
       <c r="E78">
-        <v>-0.008742711553959993</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02332378975453669</v>
+      </c>
+      <c r="F78">
+        <v>0.04132147966772362</v>
+      </c>
+      <c r="G78">
+        <v>0.03470703491722364</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0138117239800263</v>
+        <v>0.06088494384064468</v>
       </c>
       <c r="C80">
-        <v>-0.1615054606008968</v>
+        <v>0.06675938004117633</v>
       </c>
       <c r="D80">
-        <v>-0.2559472572916734</v>
+        <v>0.01201613245329405</v>
       </c>
       <c r="E80">
-        <v>0.8897359760415821</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04186913081009649</v>
+      </c>
+      <c r="F80">
+        <v>0.07883271127174403</v>
+      </c>
+      <c r="G80">
+        <v>0.9141636850716909</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.0003228673963947965</v>
+        <v>0.1452492097281591</v>
       </c>
       <c r="C81">
-        <v>-0.1512362280639695</v>
+        <v>0.09208178012913386</v>
       </c>
       <c r="D81">
-        <v>-0.1371669471948039</v>
+        <v>-0.01622590590571971</v>
       </c>
       <c r="E81">
-        <v>-0.02650387405781094</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04667027133452746</v>
+      </c>
+      <c r="F81">
+        <v>-0.1352019697519521</v>
+      </c>
+      <c r="G81">
+        <v>0.01854934529713953</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.05438188910440162</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.03736545152993114</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.002988591550880322</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.0185746828834821</v>
+      </c>
+      <c r="F82">
+        <v>-0.007124240915265581</v>
+      </c>
+      <c r="G82">
+        <v>-0.006917762321016834</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006324805451722019</v>
+        <v>0.0284260842434715</v>
       </c>
       <c r="C83">
-        <v>-0.03078169874027756</v>
+        <v>0.0208416087360234</v>
       </c>
       <c r="D83">
-        <v>-0.02553844632414492</v>
+        <v>0.005237214716482809</v>
       </c>
       <c r="E83">
-        <v>-0.01133486769156118</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02604156392767026</v>
+      </c>
+      <c r="F83">
+        <v>0.0181696352211201</v>
+      </c>
+      <c r="G83">
+        <v>0.02216679751485509</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.007851401375070526</v>
+        <v>0.2359401096295403</v>
       </c>
       <c r="C85">
-        <v>-0.1875572069886788</v>
+        <v>0.1495125632209457</v>
       </c>
       <c r="D85">
-        <v>-0.2249372869708079</v>
+        <v>-0.02003080857121311</v>
       </c>
       <c r="E85">
-        <v>-0.06061823908739901</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1266380408264969</v>
+      </c>
+      <c r="F85">
+        <v>-0.188357585436816</v>
+      </c>
+      <c r="G85">
+        <v>-0.05585252958980482</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.005418270931162259</v>
+        <v>0.01249635442443472</v>
       </c>
       <c r="C86">
-        <v>-0.01284184136547332</v>
+        <v>0.02043239206397128</v>
       </c>
       <c r="D86">
-        <v>-0.007113981164074671</v>
+        <v>0.009631535898193214</v>
       </c>
       <c r="E86">
-        <v>-0.01929596905116902</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.03877398242823099</v>
+      </c>
+      <c r="F86">
+        <v>0.0199511852252189</v>
+      </c>
+      <c r="G86">
+        <v>0.05010487175766921</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007157243678883592</v>
+        <v>0.01658073030805496</v>
       </c>
       <c r="C87">
-        <v>-0.01479315069739339</v>
+        <v>0.02839716457937512</v>
       </c>
       <c r="D87">
-        <v>-0.04005098041165452</v>
+        <v>0.01185263909224096</v>
       </c>
       <c r="E87">
-        <v>-0.01221537790371831</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.07856873814361069</v>
+      </c>
+      <c r="F87">
+        <v>0.03931766032144775</v>
+      </c>
+      <c r="G87">
+        <v>0.04337766417443875</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02563565271603361</v>
+        <v>0.08951935001795912</v>
       </c>
       <c r="C88">
-        <v>-0.04517757040951102</v>
+        <v>0.05981336545441535</v>
       </c>
       <c r="D88">
-        <v>-0.02360058619151001</v>
+        <v>0.02162588614051476</v>
       </c>
       <c r="E88">
-        <v>-0.005119377872677799</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01422234733769657</v>
+      </c>
+      <c r="F88">
+        <v>-0.01627299090304221</v>
+      </c>
+      <c r="G88">
+        <v>0.02458501950947775</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.05228023680878435</v>
+        <v>0.2203825132237848</v>
       </c>
       <c r="C89">
-        <v>-0.3248511260587827</v>
+        <v>-0.3707067807294892</v>
       </c>
       <c r="D89">
-        <v>0.298818659772729</v>
+        <v>-0.009101316207179857</v>
       </c>
       <c r="E89">
-        <v>0.01065801150043493</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.0193575791707266</v>
+      </c>
+      <c r="F89">
+        <v>-0.03461306904726762</v>
+      </c>
+      <c r="G89">
+        <v>0.03556966103404036</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.03935828459397862</v>
+        <v>0.1891916725067609</v>
       </c>
       <c r="C90">
-        <v>-0.2377599961008634</v>
+        <v>-0.3370016520486993</v>
       </c>
       <c r="D90">
-        <v>0.2722308939994605</v>
+        <v>-0.01273386568889062</v>
       </c>
       <c r="E90">
-        <v>0.007411910476413517</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.00933600832525408</v>
+      </c>
+      <c r="F90">
+        <v>-0.04764805384401095</v>
+      </c>
+      <c r="G90">
+        <v>-0.003246010825520452</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.002799973157484428</v>
+        <v>0.2076352086646236</v>
       </c>
       <c r="C91">
-        <v>-0.2010812622750807</v>
+        <v>0.1371922516547726</v>
       </c>
       <c r="D91">
-        <v>-0.2088055882820337</v>
+        <v>-0.02550556360222293</v>
       </c>
       <c r="E91">
-        <v>-0.04318746112324033</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.09282092381395778</v>
+      </c>
+      <c r="F91">
+        <v>-0.1850794485124666</v>
+      </c>
+      <c r="G91">
+        <v>0.006120689382086703</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.006053491330564825</v>
+        <v>0.2002984793624327</v>
       </c>
       <c r="C92">
-        <v>-0.3197572387288918</v>
+        <v>-0.2613663699075134</v>
       </c>
       <c r="D92">
-        <v>0.1509326197853925</v>
+        <v>-0.05040320770076231</v>
       </c>
       <c r="E92">
-        <v>-0.00112311606360584</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.01007883036903302</v>
+      </c>
+      <c r="F92">
+        <v>-0.1089655684297843</v>
+      </c>
+      <c r="G92">
+        <v>0.06871180346601252</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.03677853699088555</v>
+        <v>0.2148240565717248</v>
       </c>
       <c r="C93">
-        <v>-0.2767008260202585</v>
+        <v>-0.335511614741861</v>
       </c>
       <c r="D93">
-        <v>0.2747833169516506</v>
+        <v>-0.0195027046439026</v>
       </c>
       <c r="E93">
-        <v>-0.0142637119069589</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.001793235326563082</v>
+      </c>
+      <c r="F93">
+        <v>-0.02445753210324959</v>
+      </c>
+      <c r="G93">
+        <v>-0.0009364177420624259</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.01892452402294107</v>
+        <v>0.285936044270798</v>
       </c>
       <c r="C94">
-        <v>-0.2487691588959575</v>
+        <v>0.1590164930213728</v>
       </c>
       <c r="D94">
-        <v>-0.1969023447133098</v>
+        <v>-0.01480917687946041</v>
       </c>
       <c r="E94">
-        <v>-0.09118586325291814</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1323135899682325</v>
+      </c>
+      <c r="F94">
+        <v>-0.4107926195805224</v>
+      </c>
+      <c r="G94">
+        <v>-0.1151254490337988</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.006599342254275985</v>
+        <v>0.08113043604988238</v>
       </c>
       <c r="C95">
-        <v>-0.05227067807563385</v>
+        <v>0.07712206576521048</v>
       </c>
       <c r="D95">
-        <v>-0.06797697146265368</v>
+        <v>-0.006304514989370164</v>
       </c>
       <c r="E95">
-        <v>-0.1197962167313483</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.08398456221284745</v>
+      </c>
+      <c r="F95">
+        <v>0.1644701158086423</v>
+      </c>
+      <c r="G95">
+        <v>-0.04775115644936095</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.004137029937863051</v>
+        <v>0.208466306498742</v>
       </c>
       <c r="C98">
-        <v>-0.1718056774867684</v>
+        <v>0.04545569059210262</v>
       </c>
       <c r="D98">
-        <v>-0.1045698160375427</v>
+        <v>-0.01647398516982451</v>
       </c>
       <c r="E98">
-        <v>-0.07953928488177758</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.08115067825334518</v>
+      </c>
+      <c r="F98">
+        <v>0.244372869728172</v>
+      </c>
+      <c r="G98">
+        <v>-0.04322902876646507</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.006947297541715573</v>
+        <v>0.01364152056425498</v>
       </c>
       <c r="C101">
-        <v>-0.0209178718319466</v>
+        <v>0.02065007474250274</v>
       </c>
       <c r="D101">
-        <v>-0.01334426199359329</v>
+        <v>0.006891022557712454</v>
       </c>
       <c r="E101">
-        <v>0.005566291517894444</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.008505350376113661</v>
+      </c>
+      <c r="F101">
+        <v>-0.01277219173818025</v>
+      </c>
+      <c r="G101">
+        <v>0.02855392720270927</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01291200055796443</v>
+        <v>0.123152695959562</v>
       </c>
       <c r="C102">
-        <v>-0.1168950869549692</v>
+        <v>0.08081385416779099</v>
       </c>
       <c r="D102">
-        <v>-0.1092059872919332</v>
+        <v>0.0001422744254202576</v>
       </c>
       <c r="E102">
-        <v>-0.03205472888041939</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.0392030537884391</v>
+      </c>
+      <c r="F102">
+        <v>-0.0556435252180047</v>
+      </c>
+      <c r="G102">
+        <v>-0.006480133468031404</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001938567260941848</v>
+        <v>0.004352094721478917</v>
       </c>
       <c r="C103">
-        <v>-0.01824755830366725</v>
+        <v>0.005148634421191961</v>
       </c>
       <c r="D103">
-        <v>-0.02652487518069295</v>
+        <v>0.0005735043315176738</v>
       </c>
       <c r="E103">
-        <v>0.01075539077928109</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.0002928464739328895</v>
+      </c>
+      <c r="F103">
+        <v>-0.008977262231899763</v>
+      </c>
+      <c r="G103">
+        <v>0.01843756101675704</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9859387703262543</v>
+        <v>0.03714746174398405</v>
       </c>
       <c r="C104">
-        <v>0.09667864769687515</v>
+        <v>-0.04413193785570815</v>
       </c>
       <c r="D104">
-        <v>-0.009171545007424845</v>
+        <v>0.9866620461250363</v>
       </c>
       <c r="E104">
-        <v>0.02425419447001793</v>
+        <v>0.04550021874938235</v>
+      </c>
+      <c r="F104">
+        <v>-0.03973329192746684</v>
+      </c>
+      <c r="G104">
+        <v>-0.003388216337516401</v>
       </c>
     </row>
   </sheetData>
